--- a/Contoso_Bikes_Exercise_8.xlsx
+++ b/Contoso_Bikes_Exercise_8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A52309EF-4413-4252-9D15-E5194866BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B4D80-089D-47A6-AF2D-5A5C5CBA6F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="16440" xr2:uid="{622B0F4C-E256-446E-B5AC-66D6225C39AF}"/>
   </bookViews>
@@ -14,17 +14,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -661,7 +650,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,10 +659,13 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="11" customWidth="1"/>
-    <col min="9" max="10" width="13.1796875" customWidth="1"/>
-    <col min="11" max="12" width="13.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,7 +702,10 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="15">
+        <f>SUMIF( J7:J16, "A", K7:K16)</f>
+        <v>40382.5</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -730,7 +725,10 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="15">
+        <f>SUMIF( J7:J16, "B", K7:K16)</f>
+        <v>35100</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -750,7 +748,10 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="15">
+        <f>SUMIF( J7:J16, "C", K7:K16)</f>
+        <v>21350</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -832,20 +833,29 @@
         <f>E7*F7</f>
         <v>15750</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <f>IF(G7&gt;10000, 10%, 0)</f>
+        <v>0.1</v>
+      </c>
       <c r="I7" s="5">
         <f>G7*H7</f>
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="5">
         <f>G7-I7</f>
-        <v>15750</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="9"/>
+        <v>14175</v>
+      </c>
+      <c r="L7" s="5">
+        <f>_xlfn.IFS(J7="A", $D$2, J7="B", $D$3,  J7="C", $D$4, TRUE, 0)</f>
+        <v>75</v>
+      </c>
+      <c r="M7" s="9">
+        <f>K7+L7</f>
+        <v>14250</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -870,20 +880,29 @@
         <f t="shared" ref="G8:G16" si="0">E8*F8</f>
         <v>6300</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H16" si="1">IF(G8&gt;10000, 10%, 0)</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8:I16" si="1">G8*H8</f>
+        <f t="shared" ref="I8:I16" si="2">G8*H8</f>
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" ref="K8:K16" si="2">G8-I8</f>
+        <f t="shared" ref="K8:K16" si="3">G8-I8</f>
         <v>6300</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:L16" si="4">_xlfn.IFS(J8="A", $D$2, J8="B", $D$3,  J8="C", $D$4, TRUE, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" ref="M8:M16" si="5">K8+L8</f>
+        <v>6350</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -908,20 +927,29 @@
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1425</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="2"/>
-        <v>14250</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="9"/>
+        <f t="shared" si="3"/>
+        <v>12825</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="5"/>
+        <v>12875</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -946,20 +974,29 @@
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1150</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="2"/>
-        <v>11500</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="9"/>
+        <f t="shared" si="3"/>
+        <v>10350</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="5"/>
+        <v>10450</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -984,20 +1021,29 @@
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="I11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="2"/>
-        <v>10500</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="9"/>
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="5"/>
+        <v>9525</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1022,20 +1068,29 @@
         <f t="shared" si="0"/>
         <v>14175</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="I12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1417.5</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>14175</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="9"/>
+        <f t="shared" si="3"/>
+        <v>12757.5</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="5"/>
+        <v>12807.5</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1060,20 +1115,29 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="9"/>
+      <c r="L13" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="5"/>
+        <v>6100</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1098,20 +1162,29 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="5"/>
+        <v>5100</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1136,20 +1209,29 @@
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="5">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8500</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="9"/>
+      <c r="L15" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="5"/>
+        <v>8550</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1174,20 +1256,29 @@
         <f t="shared" si="0"/>
         <v>12750</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="I16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1275</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="2"/>
-        <v>12750</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="9"/>
+        <f t="shared" si="3"/>
+        <v>11475</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="5"/>
+        <v>11550</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1200,6 +1291,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
@@ -1217,15 +1317,6 @@
     <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,20 +1545,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75AEEDF9-0B70-424C-8DA2-B4649D7D6C19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E771D00-F70B-4A71-A745-CFD4425C64F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
     <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75AEEDF9-0B70-424C-8DA2-B4649D7D6C19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
